--- a/Elibrary/소설더미데이터.xlsx
+++ b/Elibrary/소설더미데이터.xlsx
@@ -468,12 +468,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>달러구트 꿈 백화점(레인보우 에디션) - 교보문고</t>
+          <t>달러구트 꿈 백화점(레인보우 에디션)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2020년 07월 08일 출간</t>
+          <t>2020년 07월 08일</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -491,7 +491,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -574,12 +574,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>미드나잇 라이브러리(1주년 스페셜 에디션) - 교보문고</t>
+          <t>미드나잇 라이브러리(1주년 스페셜 에디션)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021년 04월 28일 출간</t>
+          <t>2021년 04월 28일</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -597,7 +597,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -622,12 +622,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>달러구트 꿈 백화점 2(레인보우 에디션) - 교보문고</t>
+          <t>달러구트 꿈 백화점 2(레인보우 에디션)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021년 07월 27일 출간</t>
+          <t>2021년 07월 27일</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -645,7 +645,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>완전한 행복 - 교보문고</t>
+          <t>완전한 행복</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021년 06월 08일 출간</t>
+          <t>2021년 06월 08일</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -777,7 +777,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>아몬드 - 교보문고</t>
+          <t>아몬드</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2017년 03월 31일 출간</t>
+          <t>2017년 03월 31일</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>오늘 밤, 세계에서 이 사랑이 사라진다 해도 - 교보문고</t>
+          <t>오늘 밤, 세계에서 이 사랑이 사라진다 해도</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021년 06월 28일 출간</t>
+          <t>2021년 06월 28일</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -926,7 +926,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>인간 실격 - 교보문고</t>
+          <t>인간 실격</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2012년 04월 10일 출간
+          <t>2012년 04월 10일
 					(1쇄 2004년 05월 15일)</t>
         </is>
       </c>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>불편한 편의점(40만부 기념 벚꽃 에디션) - 교보문고</t>
+          <t>불편한 편의점(40만부 기념 벚꽃 에디션)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021년 04월 20일 출간</t>
+          <t>2021년 04월 20일</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>파친코 1 - 교보문고</t>
+          <t>파친코 1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2018년 03월 09일 출간</t>
+          <t>2018년 03월 09일</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>제12회 젊은작가상 수상작품집(2021) - 교보문고</t>
+          <t>제12회 젊은작가상 수상작품집(2021)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021년 04월 07일 출간</t>
+          <t>2021년 04월 07일</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>우리가 빛의 속도로 갈 수 없다면 - 교보문고</t>
+          <t>우리가 빛의 속도로 갈 수 없다면</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2019년 06월 24일 출간</t>
+          <t>2019년 06월 24일</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1390,12 +1390,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>작별하지 않는다 - 교보문고</t>
+          <t>작별하지 않는다</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021년 09월 09일 출간</t>
+          <t>2021년 09월 09일</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>시선으로부터, - 교보문고</t>
+          <t>시선으로부터,</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2020년 06월 05일 출간</t>
+          <t>2020년 06월 05일</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1543,12 +1543,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>나미야 잡화점의 기적 - 교보문고</t>
+          <t>나미야 잡화점의 기적</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2012년 12월 19일 출간</t>
+          <t>2012년 12월 19일</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1637,12 +1637,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>백조와 박쥐 - 교보문고</t>
+          <t>백조와 박쥐</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021년 08월 16일 출간</t>
+          <t>2021년 08월 16일</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>요리코를 위해 - 교보문고</t>
+          <t>요리코를 위해</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2020년 03월 04일 출간</t>
+          <t>2020년 03월 04일</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1762,12 +1762,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>모순 - 교보문고</t>
+          <t>모순</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2013년 04월 01일 출간</t>
+          <t>2013년 04월 01일</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>데미안(리커버 한정판)(초판본)(1919년 오리지널 초판본 패브릭 에디션) - 교보문고</t>
+          <t>데미안(리커버 한정판)(초판본)(1919년 오리지널 초판본 패브릭 에디션)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2017년 10월 30일 출간</t>
+          <t>2017년 10월 30일</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1904,12 +1904,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>종의 기원 - 교보문고</t>
+          <t>종의 기원</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2016년 05월 16일 출간</t>
+          <t>2016년 05월 16일</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1980,12 +1980,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>문명 1 - 교보문고</t>
+          <t>문명 1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021년 05월 30일 출간</t>
+          <t>2021년 05월 30일</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>밝은 밤 - 교보문고</t>
+          <t>밝은 밤</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021년 07월 27일 출간</t>
+          <t>2021년 07월 27일</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>봉제인형 살인사건 - 교보문고</t>
+          <t>봉제인형 살인사건</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2017년 10월 20일 출간</t>
+          <t>2017년 10월 20일</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2190,12 +2190,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>지구 끝의 온실(여름 에디션) - 교보문고</t>
+          <t>지구 끝의 온실(여름 에디션)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021년 08월 18일 출간</t>
+          <t>2021년 08월 18일</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>일인칭 단수 - 교보문고</t>
+          <t>일인칭 단수</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2020년 11월 26일 출간</t>
+          <t>2020년 11월 26일</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2312,12 +2312,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>블랙 쇼맨과 이름 없는 마을의 살인 - 교보문고</t>
+          <t>블랙 쇼맨과 이름 없는 마을의 살인</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2020년 11월 30일 출간</t>
+          <t>2020년 11월 30일</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2397,12 +2397,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>듄 1(DUNE) - 교보문고</t>
+          <t>듄 1(DUNE)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021년 01월 21일 출간</t>
+          <t>2021년 01월 21일</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2445,12 +2445,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>미드나잇 선 1 - 교보문고</t>
+          <t>미드나잇 선 1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2020년 12월 24일 출간</t>
+          <t>2020년 12월 24일</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2495,12 +2495,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>불안한 사람들 - 교보문고</t>
+          <t>불안한 사람들</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021년 05월 14일 출간</t>
+          <t>2021년 05월 14일</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2543,12 +2543,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>멋진 신세계 - 교보문고</t>
+          <t>멋진 신세계</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2015년 06월 12일 출간</t>
+          <t>2015년 06월 12일</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>보건교사 안은영(특별판) - 교보문고</t>
+          <t>보건교사 안은영(특별판)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2020년 09월 11일 출간</t>
+          <t>2020년 09월 11일</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>소설</t>
+          <t>자기계발</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
